--- a/raw_data/20200818_saline/20200818_Sensor2_Test_86.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_86.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBBAB70-D7FC-4D1D-8E1D-C0498DD1A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>76871.953588</v>
+        <v>76871.953588000004</v>
       </c>
       <c r="B2" s="1">
-        <v>21.353320</v>
+        <v>21.35332</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.990000</v>
+        <v>1247.99</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.478000</v>
+        <v>-304.47800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>76882.661717</v>
+        <v>76882.661716999995</v>
       </c>
       <c r="G2" s="1">
-        <v>21.356295</v>
+        <v>21.356294999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.970000</v>
+        <v>1273.97</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.960000</v>
+        <v>-264.95999999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>76893.069768</v>
+        <v>76893.069768000001</v>
       </c>
       <c r="L2" s="1">
-        <v>21.359186</v>
+        <v>21.359186000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1309.840000</v>
+        <v>1309.8399999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.946000</v>
+        <v>-203.946</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>76903.201578</v>
+        <v>76903.201577999993</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.362000</v>
+        <v>21.361999999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.630000</v>
+        <v>1322.63</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.180000</v>
+        <v>-186.18</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>76913.758396</v>
+        <v>76913.758396000005</v>
       </c>
       <c r="V2" s="1">
-        <v>21.364933</v>
+        <v>21.364933000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1336.240000</v>
+        <v>1336.24</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.934000</v>
+        <v>-172.934</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>76924.195710</v>
+        <v>76924.19571</v>
       </c>
       <c r="AA2" s="1">
         <v>21.367832</v>
       </c>
       <c r="AB2" s="1">
-        <v>1354.750000</v>
+        <v>1354.75</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.885000</v>
+        <v>-170.88499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>76934.715360</v>
+        <v>76934.715360000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.370754</v>
+        <v>21.370754000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.602000</v>
+        <v>-180.602</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>76944.926003</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.373591</v>
+        <v>21.373591000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.195000</v>
+        <v>-210.19499999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>76955.214550</v>
+        <v>76955.214550000004</v>
       </c>
       <c r="AP2" s="1">
         <v>21.376448</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.487000</v>
+        <v>-253.48699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>76966.158742</v>
@@ -616,694 +1032,694 @@
         <v>21.379489</v>
       </c>
       <c r="AV2" s="1">
-        <v>1437.640000</v>
+        <v>1437.64</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.693000</v>
+        <v>-312.69299999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>76976.944746</v>
+        <v>76976.944745999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.382485</v>
+        <v>21.382484999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1457.540000</v>
+        <v>1457.54</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.024000</v>
+        <v>-364.024</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>76987.938101</v>
+        <v>76987.938101000007</v>
       </c>
       <c r="BE2" s="1">
         <v>21.385538</v>
       </c>
       <c r="BF2" s="1">
-        <v>1544.440000</v>
+        <v>1544.44</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.487000</v>
+        <v>-608.48699999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>76998.874372</v>
+        <v>76998.874372000006</v>
       </c>
       <c r="BJ2" s="1">
         <v>21.388576</v>
       </c>
       <c r="BK2" s="1">
-        <v>1700.550000</v>
+        <v>1700.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1045.630000</v>
+        <v>-1045.6300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>77009.982765</v>
+        <v>77009.982764999993</v>
       </c>
       <c r="BO2" s="1">
         <v>21.391662</v>
       </c>
       <c r="BP2" s="1">
-        <v>1996.970000</v>
+        <v>1996.97</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1800.350000</v>
+        <v>-1800.35</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>77020.438431</v>
+        <v>77020.438431000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.394566</v>
+        <v>21.394566000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2387.230000</v>
+        <v>2387.23</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2667.220000</v>
+        <v>-2667.22</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>77031.618295</v>
+        <v>77031.618294999993</v>
       </c>
       <c r="BY2" s="1">
         <v>21.397672</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2867.150000</v>
+        <v>2867.15</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3611.480000</v>
+        <v>-3611.48</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>77042.534711</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.400704</v>
+        <v>21.400704000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4282.450000</v>
+        <v>4282.45</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5872.250000</v>
+        <v>-5872.25</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>76872.679730</v>
+        <v>76872.679730000003</v>
       </c>
       <c r="B3" s="1">
-        <v>21.353522</v>
+        <v>21.353522000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D3" s="1">
-        <v>-304.814000</v>
+        <v>-304.81400000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>76883.008948</v>
+        <v>76883.008948000002</v>
       </c>
       <c r="G3" s="1">
-        <v>21.356391</v>
+        <v>21.356390999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.620000</v>
+        <v>1273.6199999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.261000</v>
+        <v>-264.26100000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>76893.420935</v>
+        <v>76893.420935000002</v>
       </c>
       <c r="L3" s="1">
-        <v>21.359284</v>
+        <v>21.359283999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.090000</v>
+        <v>1310.0899999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.013000</v>
+        <v>-204.01300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>76903.564618</v>
+        <v>76903.564618000004</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.362101</v>
+        <v>21.362100999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.650000</v>
+        <v>1322.65</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.137000</v>
+        <v>-186.137</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>76914.423531</v>
+        <v>76914.423530999993</v>
       </c>
       <c r="V3" s="1">
-        <v>21.365118</v>
+        <v>21.365117999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1336.590000</v>
+        <v>1336.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.155000</v>
+        <v>-173.155</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>76924.882669</v>
+        <v>76924.882668999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.368023</v>
+        <v>21.368023000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.978000</v>
+        <v>-170.97800000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>76935.113152</v>
+        <v>76935.113152000005</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.370865</v>
+        <v>21.370864999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.320000</v>
+        <v>1368.32</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.594000</v>
+        <v>-180.59399999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>76945.279154</v>
+        <v>76945.279154000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.373689</v>
+        <v>21.373688999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.730000</v>
+        <v>1389.73</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.189000</v>
+        <v>-210.18899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>76955.576101</v>
+        <v>76955.576100999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.376549</v>
+        <v>21.376549000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1412.300000</v>
+        <v>1412.3</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.523000</v>
+        <v>-253.523</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>76966.539708</v>
+        <v>76966.539707999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.379594</v>
+        <v>21.379594000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.695000</v>
+        <v>-312.69499999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>76977.304344</v>
+        <v>76977.304344000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.382585</v>
+        <v>21.382584999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1457.510000</v>
+        <v>1457.51</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.998000</v>
+        <v>-363.99799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>76988.360169</v>
+        <v>76988.360169000007</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.385656</v>
+        <v>21.385656000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1544.450000</v>
+        <v>1544.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.495000</v>
+        <v>-608.495</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>76999.337131</v>
+        <v>76999.337130999993</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.388705</v>
+        <v>21.388705000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1700.590000</v>
+        <v>1700.59</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1045.590000</v>
+        <v>-1045.5899999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>77010.120156</v>
+        <v>77010.120156000004</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.391700</v>
+        <v>21.3917</v>
       </c>
       <c r="BP3" s="1">
-        <v>1996.690000</v>
+        <v>1996.69</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1800.710000</v>
+        <v>-1800.71</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>77020.938895</v>
+        <v>77020.938894999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.394705</v>
+        <v>21.394704999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2387.080000</v>
+        <v>2387.08</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2667.450000</v>
+        <v>-2667.45</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>77032.094913</v>
+        <v>77032.094912999994</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.397804</v>
+        <v>21.397804000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2867.120000</v>
+        <v>2867.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3611.880000</v>
+        <v>-3611.88</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>77043.101634</v>
+        <v>77043.101634000006</v>
       </c>
       <c r="CD3" s="1">
         <v>21.400862</v>
       </c>
       <c r="CE3" s="1">
-        <v>4282.370000</v>
+        <v>4282.37</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5875.370000</v>
+        <v>-5875.37</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>76873.021474</v>
+        <v>76873.021473999994</v>
       </c>
       <c r="B4" s="1">
         <v>21.353617</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-304.813000</v>
+        <v>-304.81299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>76883.353141</v>
       </c>
       <c r="G4" s="1">
-        <v>21.356487</v>
+        <v>21.356487000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.150000</v>
+        <v>1273.1500000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.299000</v>
+        <v>-264.29899999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>76893.765159</v>
+        <v>76893.765159000002</v>
       </c>
       <c r="L4" s="1">
-        <v>21.359379</v>
+        <v>21.359379000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1310.090000</v>
+        <v>1310.0899999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-204.079000</v>
+        <v>-204.07900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>76904.226281</v>
+        <v>76904.226280999996</v>
       </c>
       <c r="Q4" s="1">
         <v>21.362285</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.690000</v>
+        <v>1322.69</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.152000</v>
+        <v>-186.15199999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>76914.802972</v>
+        <v>76914.802972000005</v>
       </c>
       <c r="V4" s="1">
         <v>21.365223</v>
       </c>
       <c r="W4" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.869000</v>
+        <v>-172.869</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>76925.269554</v>
+        <v>76925.269553999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.368130</v>
+        <v>21.368130000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1354.680000</v>
+        <v>1354.68</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.909000</v>
+        <v>-170.90899999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>76935.458863</v>
+        <v>76935.458863000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.370961</v>
+        <v>21.370961000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.532000</v>
+        <v>-180.53200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>76945.623876</v>
+        <v>76945.623875999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.373784</v>
+        <v>21.373784000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.770000</v>
+        <v>1389.77</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.187000</v>
+        <v>-210.18700000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>76955.935700</v>
+        <v>76955.935700000002</v>
       </c>
       <c r="AP4" s="1">
         <v>21.376649</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1412.260000</v>
+        <v>1412.26</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.502000</v>
+        <v>-253.50200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>76966.961799</v>
+        <v>76966.961798999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.379712</v>
+        <v>21.379712000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1437.640000</v>
+        <v>1437.64</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.675000</v>
+        <v>-312.67500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>76978.030526</v>
+        <v>76978.030526000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.382786</v>
+        <v>21.382785999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1457.510000</v>
+        <v>1457.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.024000</v>
+        <v>-364.024</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>76988.679631</v>
+        <v>76988.679631000006</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.385744</v>
+        <v>21.385743999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1544.490000</v>
+        <v>1544.49</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.462000</v>
+        <v>-608.46199999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>76999.736412</v>
+        <v>76999.736411999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.388816</v>
+        <v>21.388815999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1700.440000</v>
+        <v>1700.44</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1045.640000</v>
+        <v>-1045.6400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>77010.523901</v>
+        <v>77010.523900999993</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.391812</v>
+        <v>21.391812000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1996.690000</v>
+        <v>1996.69</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1800.730000</v>
+        <v>-1800.73</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>77021.372895</v>
+        <v>77021.372894999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.394826</v>
+        <v>21.394825999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>2386.880000</v>
+        <v>2386.88</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2667.560000</v>
+        <v>-2667.56</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>77032.520508</v>
+        <v>77032.520508000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.397922</v>
+        <v>21.397922000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2867.030000</v>
+        <v>2867.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3611.180000</v>
+        <v>-3611.18</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>77043.622928</v>
+        <v>77043.622927999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.401006</v>
+        <v>21.401005999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4276.490000</v>
+        <v>4276.49</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5860.700000</v>
+        <v>-5860.7</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>76873.362226</v>
+        <v>76873.362225999997</v>
       </c>
       <c r="B5" s="1">
-        <v>21.353712</v>
+        <v>21.353712000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.850000</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-304.694000</v>
+        <v>-304.69400000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>76884.012820</v>
+        <v>76884.012820000004</v>
       </c>
       <c r="G5" s="1">
-        <v>21.356670</v>
+        <v>21.356670000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.430000</v>
+        <v>1273.43</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.680000</v>
+        <v>-263.68</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>76894.205112</v>
+        <v>76894.205111999996</v>
       </c>
       <c r="L5" s="1">
-        <v>21.359501</v>
+        <v>21.359501000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1310.170000</v>
+        <v>1310.17</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.790000</v>
+        <v>-203.79</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>76904.609205</v>
+        <v>76904.609205000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.362391</v>
+        <v>21.362390999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.690000</v>
+        <v>1322.69</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.186000</v>
+        <v>-186.18600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>76915.149179</v>
@@ -1312,1224 +1728,1224 @@
         <v>21.365319</v>
       </c>
       <c r="W5" s="1">
-        <v>1336.540000</v>
+        <v>1336.54</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.022000</v>
+        <v>-173.02199999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>76925.617277</v>
+        <v>76925.617276999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.368227</v>
+        <v>21.368227000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1354.620000</v>
+        <v>1354.62</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.947000</v>
+        <v>-170.947</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>76935.799617</v>
+        <v>76935.799616999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.371055</v>
+        <v>21.371054999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.647000</v>
+        <v>-180.64699999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>76946.045473</v>
+        <v>76946.045473000006</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.373902</v>
+        <v>21.373902000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.810000</v>
+        <v>1389.81</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.239000</v>
+        <v>-210.239</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>76956.373668</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.376770</v>
+        <v>21.37677</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1412.290000</v>
+        <v>1412.29</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.520000</v>
+        <v>-253.52</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>76967.267830</v>
+        <v>76967.267829999997</v>
       </c>
       <c r="AU5" s="1">
         <v>21.379797</v>
       </c>
       <c r="AV5" s="1">
-        <v>1437.640000</v>
+        <v>1437.64</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.689000</v>
+        <v>-312.68900000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>76978.408439</v>
+        <v>76978.408439000006</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.382891</v>
+        <v>21.382891000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.045000</v>
+        <v>-364.04500000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>76989.042665</v>
+        <v>76989.042665000001</v>
       </c>
       <c r="BE5" s="1">
         <v>21.385845</v>
       </c>
       <c r="BF5" s="1">
-        <v>1544.420000</v>
+        <v>1544.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.486000</v>
+        <v>-608.48599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>77000.111882</v>
+        <v>77000.111881999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.388920</v>
+        <v>21.388919999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1700.500000</v>
+        <v>1700.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.640000</v>
+        <v>-1045.6400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>77010.925164</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.391924</v>
+        <v>21.391923999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1996.670000</v>
+        <v>1996.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1800.730000</v>
+        <v>-1800.73</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>77022.214141</v>
+        <v>77022.214141000004</v>
       </c>
       <c r="BT5" s="1">
         <v>21.395059</v>
       </c>
       <c r="BU5" s="1">
-        <v>2387.090000</v>
+        <v>2387.09</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2667.260000</v>
+        <v>-2667.26</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>77032.955472</v>
+        <v>77032.955472000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.398043</v>
+        <v>21.398043000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2866.940000</v>
+        <v>2866.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3612.110000</v>
+        <v>-3612.11</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>77044.138768</v>
+        <v>77044.138768000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.401150</v>
+        <v>21.401150000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4278.450000</v>
+        <v>4278.45</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5866.140000</v>
+        <v>-5866.14</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>76874.023430</v>
+        <v>76874.023430000001</v>
       </c>
       <c r="B6" s="1">
-        <v>21.353895</v>
+        <v>21.353895000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-304.733000</v>
+        <v>-304.733</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>76884.391267</v>
+        <v>76884.391266999999</v>
       </c>
       <c r="G6" s="1">
-        <v>21.356775</v>
+        <v>21.356774999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1274.190000</v>
+        <v>1274.19</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.428000</v>
+        <v>-263.428</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>76894.461219</v>
+        <v>76894.461219000004</v>
       </c>
       <c r="L6" s="1">
-        <v>21.359573</v>
+        <v>21.359573000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.070000</v>
+        <v>1310.07</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.768000</v>
+        <v>-203.768</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>76904.959368</v>
+        <v>76904.959367999996</v>
       </c>
       <c r="Q6" s="1">
         <v>21.362489</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.620000</v>
+        <v>1322.62</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.191000</v>
+        <v>-186.191</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>76915.498362</v>
+        <v>76915.498361999998</v>
       </c>
       <c r="V6" s="1">
         <v>21.365416</v>
       </c>
       <c r="W6" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.953000</v>
+        <v>-172.953</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>76925.957500</v>
+        <v>76925.957500000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.368322</v>
+        <v>21.368321999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1354.600000</v>
+        <v>1354.6</v>
       </c>
       <c r="AC6" s="1">
-        <v>-171.019000</v>
+        <v>-171.01900000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>76936.222703</v>
+        <v>76936.222703000007</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.371173</v>
+        <v>21.371172999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.590000</v>
+        <v>-180.59</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>76946.337121</v>
+        <v>76946.337121000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.373983</v>
+        <v>21.373982999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.780000</v>
+        <v>1389.78</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.221000</v>
+        <v>-210.221</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>76956.658408</v>
+        <v>76956.658408000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.376850</v>
+        <v>21.376850000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1412.220000</v>
+        <v>1412.22</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.562000</v>
+        <v>-253.56200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>76967.631861</v>
+        <v>76967.631861000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.379898</v>
+        <v>21.379898000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.689000</v>
+        <v>-312.68900000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>76978.788870</v>
+        <v>76978.788870000004</v>
       </c>
       <c r="AZ6" s="1">
         <v>21.382997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1457.510000</v>
+        <v>1457.51</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.039000</v>
+        <v>-364.03899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>76989.403752</v>
+        <v>76989.403751999998</v>
       </c>
       <c r="BE6" s="1">
         <v>21.385945</v>
       </c>
       <c r="BF6" s="1">
-        <v>1544.420000</v>
+        <v>1544.42</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.461000</v>
+        <v>-608.46100000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>77000.860878</v>
+        <v>77000.860878000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.389128</v>
+        <v>21.389127999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1700.440000</v>
+        <v>1700.44</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.680000</v>
+        <v>-1045.68</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>77011.739594</v>
+        <v>77011.739593999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.392150</v>
+        <v>21.392150000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1996.450000</v>
+        <v>1996.45</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1800.690000</v>
+        <v>-1800.69</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>77022.647613</v>
+        <v>77022.647612999994</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.395180</v>
+        <v>21.39518</v>
       </c>
       <c r="BU6" s="1">
-        <v>2386.600000</v>
+        <v>2386.6</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2667.340000</v>
+        <v>-2667.34</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>77033.389470</v>
+        <v>77033.389469999995</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.398164</v>
+        <v>21.398164000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2866.980000</v>
+        <v>2866.98</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3611.740000</v>
+        <v>-3611.74</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>77044.691807</v>
+        <v>77044.691806999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.401303</v>
+        <v>21.401302999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4280.950000</v>
+        <v>4280.95</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5876.570000</v>
+        <v>-5876.57</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>76874.387967</v>
+        <v>76874.387967000002</v>
       </c>
       <c r="B7" s="1">
         <v>21.353997</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D7" s="1">
-        <v>-304.903000</v>
+        <v>-304.90300000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>76884.735498</v>
+        <v>76884.735497999995</v>
       </c>
       <c r="G7" s="1">
-        <v>21.356871</v>
+        <v>21.356871000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.170000</v>
+        <v>1273.17</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.655000</v>
+        <v>-264.65499999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>76894.809733</v>
+        <v>76894.809733000002</v>
       </c>
       <c r="L7" s="1">
         <v>21.359669</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.350000</v>
+        <v>1310.3499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.855000</v>
+        <v>-203.85499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>76905.310122</v>
+        <v>76905.310121999995</v>
       </c>
       <c r="Q7" s="1">
         <v>21.362586</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.600000</v>
+        <v>1322.6</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.159000</v>
+        <v>-186.15899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>76915.925714</v>
+        <v>76915.925713999997</v>
       </c>
       <c r="V7" s="1">
-        <v>21.365535</v>
+        <v>21.365535000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1336.570000</v>
+        <v>1336.57</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.958000</v>
+        <v>-172.958</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>76926.387532</v>
+        <v>76926.387531999993</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.368441</v>
+        <v>21.368441000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1354.730000</v>
+        <v>1354.73</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.943000</v>
+        <v>-170.94300000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>76936.492030</v>
+        <v>76936.492029999994</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.371248</v>
+        <v>21.371248000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.200000</v>
+        <v>1368.2</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.569000</v>
+        <v>-180.56899999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>76946.685844</v>
+        <v>76946.685844000007</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.374079</v>
+        <v>21.374078999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.180000</v>
+        <v>-210.18</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>76957.018467</v>
+        <v>76957.018467000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.376950</v>
+        <v>21.376950000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1412.280000</v>
+        <v>1412.28</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.511000</v>
+        <v>-253.511</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>76967.997412</v>
+        <v>76967.997411999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.379999</v>
+        <v>21.379999000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.663000</v>
+        <v>-312.66300000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>76979.503109</v>
+        <v>76979.503108999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.383195</v>
+        <v>21.383195000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1457.490000</v>
+        <v>1457.49</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.042000</v>
+        <v>-364.04199999999997</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>76990.128407</v>
+        <v>76990.128406999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.386147</v>
+        <v>21.386147000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.426000</v>
+        <v>-608.42600000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>77001.238827</v>
+        <v>77001.238826999994</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.389233</v>
+        <v>21.389233000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1700.500000</v>
+        <v>1700.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1045.640000</v>
+        <v>-1045.6400000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>77012.148299</v>
+        <v>77012.148298999993</v>
       </c>
       <c r="BO7" s="1">
         <v>21.392263</v>
       </c>
       <c r="BP7" s="1">
-        <v>1996.610000</v>
+        <v>1996.61</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1800.650000</v>
+        <v>-1800.65</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>77023.073708</v>
+        <v>77023.073707999996</v>
       </c>
       <c r="BT7" s="1">
         <v>21.395298</v>
       </c>
       <c r="BU7" s="1">
-        <v>2386.800000</v>
+        <v>2386.8000000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2667.300000</v>
+        <v>-2667.3</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>77034.117133</v>
+        <v>77034.117133000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.398366</v>
+        <v>21.398365999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2866.420000</v>
+        <v>2866.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3611.830000</v>
+        <v>-3611.83</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>77045.222526</v>
+        <v>77045.222525999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.401451</v>
+        <v>21.401451000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4276.990000</v>
+        <v>4276.99</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5862.170000</v>
+        <v>-5862.17</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>76874.731712</v>
+        <v>76874.731711999993</v>
       </c>
       <c r="B8" s="1">
-        <v>21.354092</v>
+        <v>21.354092000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-304.585000</v>
+        <v>-304.58499999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>76885.084706</v>
+        <v>76885.084705999994</v>
       </c>
       <c r="G8" s="1">
-        <v>21.356968</v>
+        <v>21.356967999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.690000</v>
+        <v>1273.69</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.359000</v>
+        <v>-264.35899999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>76895.233318</v>
+        <v>76895.233317999999</v>
       </c>
       <c r="L8" s="1">
-        <v>21.359787</v>
+        <v>21.359787000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.100000</v>
+        <v>1310.0999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.891000</v>
+        <v>-203.89099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>76905.729687</v>
+        <v>76905.729686999999</v>
       </c>
       <c r="Q8" s="1">
         <v>21.362703</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.180000</v>
+        <v>-186.18</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>76916.200727</v>
+        <v>76916.200727000003</v>
       </c>
       <c r="V8" s="1">
-        <v>21.365611</v>
+        <v>21.365611000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.962000</v>
+        <v>-172.96199999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>76926.663803</v>
+        <v>76926.663803000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.368518</v>
+        <v>21.368518000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1354.710000</v>
+        <v>1354.71</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.952000</v>
+        <v>-170.952</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>76936.835757</v>
+        <v>76936.835756999993</v>
       </c>
       <c r="AF8" s="1">
         <v>21.371343</v>
       </c>
       <c r="AG8" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.633000</v>
+        <v>-180.63300000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>76947.032539</v>
+        <v>76947.032539000007</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.374176</v>
+        <v>21.374175999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.191000</v>
+        <v>-210.191</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>76957.378098</v>
+        <v>76957.378098000001</v>
       </c>
       <c r="AP8" s="1">
         <v>21.377049</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1412.260000</v>
+        <v>1412.26</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.520000</v>
+        <v>-253.52</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>76968.726068</v>
+        <v>76968.726068000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.380202</v>
+        <v>21.380202000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1437.670000</v>
+        <v>1437.67</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.708000</v>
+        <v>-312.70800000000003</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>76979.863204</v>
+        <v>76979.863203999994</v>
       </c>
       <c r="AZ8" s="1">
         <v>21.383295</v>
       </c>
       <c r="BA8" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.044000</v>
+        <v>-364.04399999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>76990.485776</v>
+        <v>76990.485776000001</v>
       </c>
       <c r="BE8" s="1">
         <v>21.386246</v>
       </c>
       <c r="BF8" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.434000</v>
+        <v>-608.43399999999997</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>77001.611290</v>
+        <v>77001.611290000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>21.389336</v>
       </c>
       <c r="BK8" s="1">
-        <v>1700.480000</v>
+        <v>1700.48</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1045.650000</v>
+        <v>-1045.6500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>77012.857081</v>
+        <v>77012.857080999995</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.392460</v>
+        <v>21.39246</v>
       </c>
       <c r="BP8" s="1">
-        <v>1996.500000</v>
+        <v>1996.5</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1800.590000</v>
+        <v>-1800.59</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>77023.798332</v>
+        <v>77023.798332000006</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.395500</v>
+        <v>21.395499999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2386.470000</v>
+        <v>2386.4699999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2667.550000</v>
+        <v>-2667.55</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>77034.258989</v>
+        <v>77034.258988999994</v>
       </c>
       <c r="BY8" s="1">
         <v>21.398405</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2866.510000</v>
+        <v>2866.51</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3611.790000</v>
+        <v>-3611.79</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>77045.738366</v>
+        <v>77045.738366000005</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.401594</v>
+        <v>21.401593999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4263.280000</v>
+        <v>4263.28</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5867.010000</v>
+        <v>-5867.01</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>76875.069951</v>
+        <v>76875.069950999998</v>
       </c>
       <c r="B9" s="1">
-        <v>21.354186</v>
+        <v>21.354185999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.228000</v>
+        <v>-305.22800000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>76885.516689</v>
+        <v>76885.516688999996</v>
       </c>
       <c r="G9" s="1">
-        <v>21.357088</v>
+        <v>21.357088000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.600000</v>
+        <v>1273.5999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.256000</v>
+        <v>-264.25599999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>76895.502676</v>
+        <v>76895.502676000004</v>
       </c>
       <c r="L9" s="1">
         <v>21.359862</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.360000</v>
+        <v>1310.3599999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-204.055000</v>
+        <v>-204.05500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>76906.006920</v>
+        <v>76906.00692</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.362780</v>
+        <v>21.362780000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.690000</v>
+        <v>1322.69</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.065000</v>
+        <v>-186.065</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>76916.544920</v>
+        <v>76916.54492</v>
       </c>
       <c r="V9" s="1">
         <v>21.365707</v>
       </c>
       <c r="W9" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.956000</v>
+        <v>-172.95599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>76927.014980</v>
+        <v>76927.014980000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.368615</v>
+        <v>21.368614999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1354.610000</v>
+        <v>1354.61</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.975000</v>
+        <v>-170.97499999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>76937.179021</v>
+        <v>76937.179021000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.371439</v>
+        <v>21.371438999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.614000</v>
+        <v>-180.614</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>76947.732901</v>
+        <v>76947.732900999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.374370</v>
+        <v>21.374369999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.180000</v>
+        <v>-210.18</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>76958.096769</v>
+        <v>76958.096768999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.377249</v>
+        <v>21.377248999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.464000</v>
+        <v>-253.464</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>76969.118372</v>
+        <v>76969.118371999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.380311</v>
+        <v>21.380310999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1437.650000</v>
+        <v>1437.65</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.663000</v>
+        <v>-312.66300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>76980.221812</v>
+        <v>76980.221812000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>21.383395</v>
       </c>
       <c r="BA9" s="1">
-        <v>1457.480000</v>
+        <v>1457.48</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.068000</v>
+        <v>-364.06799999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>76990.847606</v>
+        <v>76990.847605999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.386347</v>
+        <v>21.386347000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.421000</v>
+        <v>-608.42100000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>77002.297255</v>
+        <v>77002.297254999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.389527</v>
+        <v>21.389527000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1700.440000</v>
+        <v>1700.44</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1045.620000</v>
+        <v>-1045.6199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>77012.983849</v>
+        <v>77012.983848999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.392496</v>
+        <v>21.392496000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1996.580000</v>
+        <v>1996.58</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1800.710000</v>
+        <v>-1800.71</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>77023.918363</v>
+        <v>77023.918363000004</v>
       </c>
       <c r="BT9" s="1">
         <v>21.395533</v>
       </c>
       <c r="BU9" s="1">
-        <v>2386.770000</v>
+        <v>2386.77</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2667.160000</v>
+        <v>-2667.16</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>77034.686510</v>
+        <v>77034.68651</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.398524</v>
+        <v>21.398523999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2867.130000</v>
+        <v>2867.13</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3612.240000</v>
+        <v>-3612.24</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>77046.256190</v>
+        <v>77046.25619</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.401738</v>
+        <v>21.401738000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4270.360000</v>
+        <v>4270.3599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5878.620000</v>
+        <v>-5878.62</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>76875.498991</v>
       </c>
@@ -2537,1675 +2953,1675 @@
         <v>21.354305</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.710000</v>
+        <v>1247.71</v>
       </c>
       <c r="D10" s="1">
-        <v>-304.806000</v>
+        <v>-304.80599999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>76885.789985</v>
+        <v>76885.789984999996</v>
       </c>
       <c r="G10" s="1">
-        <v>21.357164</v>
+        <v>21.357164000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.410000</v>
+        <v>1273.4100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-263.923000</v>
+        <v>-263.923</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>76895.849348</v>
+        <v>76895.849348000003</v>
       </c>
       <c r="L10" s="1">
-        <v>21.359958</v>
+        <v>21.359957999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1310.160000</v>
+        <v>1310.1600000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.131000</v>
+        <v>-204.131</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>76906.361094</v>
+        <v>76906.361094000007</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.362878</v>
+        <v>21.362877999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.650000</v>
+        <v>1322.65</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.158000</v>
+        <v>-186.15799999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>76916.885705</v>
+        <v>76916.885704999993</v>
       </c>
       <c r="V10" s="1">
-        <v>21.365802</v>
+        <v>21.365801999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="X10" s="1">
-        <v>-173.122000</v>
+        <v>-173.12200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>76927.585371</v>
+        <v>76927.585370999994</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.368774</v>
+        <v>21.368773999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1354.700000</v>
+        <v>1354.7</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.925000</v>
+        <v>-170.92500000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>76937.865950</v>
+        <v>76937.865950000007</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.371629</v>
+        <v>21.371628999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.555000</v>
+        <v>-180.55500000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>76948.078608</v>
+        <v>76948.078607999996</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.374466</v>
+        <v>21.374466000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.222000</v>
+        <v>-210.22200000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>76958.459345</v>
+        <v>76958.459344999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.377350</v>
+        <v>21.37735</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.493000</v>
+        <v>-253.49299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>76969.483922</v>
+        <v>76969.483921999999</v>
       </c>
       <c r="AU10" s="1">
         <v>21.380412</v>
       </c>
       <c r="AV10" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.658000</v>
+        <v>-312.65800000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>76980.892934</v>
+        <v>76980.892934000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>21.383581</v>
       </c>
       <c r="BA10" s="1">
-        <v>1457.490000</v>
+        <v>1457.49</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.991000</v>
+        <v>-363.99099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>76991.522165</v>
+        <v>76991.522165000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.386534</v>
+        <v>21.386534000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.447000</v>
+        <v>-608.447</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>77002.738694</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.389650</v>
+        <v>21.38965</v>
       </c>
       <c r="BK10" s="1">
-        <v>1700.460000</v>
+        <v>1700.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1045.560000</v>
+        <v>-1045.56</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>77013.391768</v>
+        <v>77013.391768000001</v>
       </c>
       <c r="BO10" s="1">
         <v>21.392609</v>
       </c>
       <c r="BP10" s="1">
-        <v>1996.540000</v>
+        <v>1996.54</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1800.440000</v>
+        <v>-1800.44</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>77024.355338</v>
+        <v>77024.355337999994</v>
       </c>
       <c r="BT10" s="1">
         <v>21.395654</v>
       </c>
       <c r="BU10" s="1">
-        <v>2386.400000</v>
+        <v>2386.4</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2667.240000</v>
+        <v>-2667.24</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>77035.101659</v>
+        <v>77035.101659000007</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.398639</v>
+        <v>21.398638999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2866.830000</v>
+        <v>2866.83</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3611.140000</v>
+        <v>-3611.14</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>77046.774013</v>
+        <v>77046.774013000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.401882</v>
+        <v>21.401882000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4262.240000</v>
+        <v>4262.24</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5877.770000</v>
+        <v>-5877.77</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>76875.772286</v>
+        <v>76875.772286000007</v>
       </c>
       <c r="B11" s="1">
         <v>21.354381</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.660000</v>
+        <v>1247.6600000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-304.625000</v>
+        <v>-304.625</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>76886.131271</v>
+        <v>76886.131271000006</v>
       </c>
       <c r="G11" s="1">
-        <v>21.357259</v>
+        <v>21.357258999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1274.180000</v>
+        <v>1274.18</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.467000</v>
+        <v>-264.46699999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>76896.194563</v>
+        <v>76896.194562999997</v>
       </c>
       <c r="L11" s="1">
-        <v>21.360054</v>
+        <v>21.360054000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.020000</v>
+        <v>1310.02</v>
       </c>
       <c r="N11" s="1">
-        <v>-204.012000</v>
+        <v>-204.012</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>76906.709254</v>
+        <v>76906.709254000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.362975</v>
+        <v>21.362974999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.650000</v>
+        <v>1322.65</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.254000</v>
+        <v>-186.25399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>76917.575485</v>
+        <v>76917.575484999994</v>
       </c>
       <c r="V11" s="1">
         <v>21.365993</v>
       </c>
       <c r="W11" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.991000</v>
+        <v>-172.99100000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>76927.709866</v>
+        <v>76927.709866000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.368808</v>
+        <v>21.368808000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1354.680000</v>
+        <v>1354.68</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.851000</v>
+        <v>-170.851</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>76938.209675</v>
+        <v>76938.209675000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.371725</v>
+        <v>21.371725000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.538000</v>
+        <v>-180.53800000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>76948.427775</v>
+        <v>76948.427775000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.374563</v>
+        <v>21.374562999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.207000</v>
+        <v>-210.20699999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>76958.818944</v>
+        <v>76958.818943999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.377450</v>
+        <v>21.37745</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1412.240000</v>
+        <v>1412.24</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.522000</v>
+        <v>-253.52199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>76970.164471</v>
+        <v>76970.164470999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.380601</v>
+        <v>21.380600999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1437.670000</v>
+        <v>1437.67</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.669000</v>
+        <v>-312.66899999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>76981.297635</v>
+        <v>76981.297634999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.383694</v>
+        <v>21.383693999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1457.490000</v>
+        <v>1457.49</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.030000</v>
+        <v>-364.03</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>76991.961622</v>
+        <v>76991.961622000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.386656</v>
+        <v>21.386655999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.451000</v>
+        <v>-608.45100000000002</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>77003.113206</v>
+        <v>77003.113205999995</v>
       </c>
       <c r="BJ11" s="1">
         <v>21.389754</v>
       </c>
       <c r="BK11" s="1">
-        <v>1700.420000</v>
+        <v>1700.42</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1045.580000</v>
+        <v>-1045.58</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>77013.787608</v>
+        <v>77013.787607999999</v>
       </c>
       <c r="BO11" s="1">
         <v>21.392719</v>
       </c>
       <c r="BP11" s="1">
-        <v>1996.400000</v>
+        <v>1996.4</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1800.610000</v>
+        <v>-1800.61</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>77024.784379</v>
+        <v>77024.784379000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.395773</v>
+        <v>21.395772999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>2386.510000</v>
+        <v>2386.5100000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2667.070000</v>
+        <v>-2667.07</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>77035.556523</v>
+        <v>77035.556523000007</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.398766</v>
+        <v>21.398765999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2866.310000</v>
+        <v>2866.31</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3611.390000</v>
+        <v>-3611.39</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>77047.328539</v>
+        <v>77047.328538999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.402036</v>
+        <v>21.402035999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4263.020000</v>
+        <v>4263.0200000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5866.240000</v>
+        <v>-5866.24</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>76876.113533</v>
+        <v>76876.113532999996</v>
       </c>
       <c r="B12" s="1">
-        <v>21.354476</v>
+        <v>21.354475999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.730000</v>
+        <v>1247.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-304.623000</v>
+        <v>-304.62299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>76886.477440</v>
+        <v>76886.477440000002</v>
       </c>
       <c r="G12" s="1">
-        <v>21.357355</v>
+        <v>21.357354999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.930000</v>
+        <v>1273.93</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.956000</v>
+        <v>-264.95600000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>76896.888973</v>
+        <v>76896.888972999994</v>
       </c>
       <c r="L12" s="1">
-        <v>21.360247</v>
+        <v>21.360247000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1310.340000</v>
+        <v>1310.3399999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.855000</v>
+        <v>-203.85499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>76907.403156</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.363168</v>
+        <v>21.363168000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.580000</v>
+        <v>1322.58</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.247000</v>
+        <v>-186.24700000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>76917.917847</v>
+        <v>76917.917847000004</v>
       </c>
       <c r="V12" s="1">
-        <v>21.366088</v>
+        <v>21.366088000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1336.410000</v>
+        <v>1336.41</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.000000</v>
+        <v>-173</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>76928.060078</v>
+        <v>76928.060077999995</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.368906</v>
+        <v>21.368905999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1354.700000</v>
+        <v>1354.7</v>
       </c>
       <c r="AC12" s="1">
-        <v>-171.069000</v>
+        <v>-171.06899999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>76938.554924</v>
+        <v>76938.554923999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.371821</v>
+        <v>21.371821000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.641000</v>
+        <v>-180.64099999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>76949.079536</v>
+        <v>76949.079536000005</v>
       </c>
       <c r="AK12" s="1">
         <v>21.374744</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.780000</v>
+        <v>1389.78</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.174000</v>
+        <v>-210.17400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>76959.502928</v>
+        <v>76959.502928000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.377640</v>
+        <v>21.37764</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.431000</v>
+        <v>-253.43100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>76970.611329</v>
+        <v>76970.611329000007</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.380725</v>
+        <v>21.380725000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1437.640000</v>
+        <v>1437.64</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.655000</v>
+        <v>-312.65499999999997</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>76981.687517</v>
+        <v>76981.687516999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.383802</v>
+        <v>21.383801999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.001000</v>
+        <v>-364.00099999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>76992.319770</v>
+        <v>76992.319770000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.386755</v>
+        <v>21.386755000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1544.440000</v>
+        <v>1544.44</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.416000</v>
+        <v>-608.41600000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>77003.489179</v>
+        <v>77003.489178999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>21.389858</v>
       </c>
       <c r="BK12" s="1">
-        <v>1700.490000</v>
+        <v>1700.49</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1045.580000</v>
+        <v>-1045.58</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>77014.222600</v>
+        <v>77014.222599999994</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.392840</v>
+        <v>21.39284</v>
       </c>
       <c r="BP12" s="1">
-        <v>1996.370000</v>
+        <v>1996.37</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1800.610000</v>
+        <v>-1800.61</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>77025.207497</v>
+        <v>77025.207496999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.395891</v>
+        <v>21.395890999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2386.340000</v>
+        <v>2386.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2666.930000</v>
+        <v>-2666.93</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>77036.004411</v>
+        <v>77036.004411000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.398890</v>
+        <v>21.398890000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2866.720000</v>
+        <v>2866.72</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3611.570000</v>
+        <v>-3611.57</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>77047.859755</v>
+        <v>77047.859754999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.402183</v>
+        <v>21.402183000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4268.910000</v>
+        <v>4268.91</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5878.870000</v>
+        <v>-5878.87</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>76876.454781</v>
+        <v>76876.454780999993</v>
       </c>
       <c r="B13" s="1">
         <v>21.354571</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D13" s="1">
-        <v>-304.958000</v>
+        <v>-304.95800000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>76887.168368</v>
+        <v>76887.168367999999</v>
       </c>
       <c r="G13" s="1">
         <v>21.357547</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.960000</v>
+        <v>1273.96</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.140000</v>
+        <v>-264.14</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>76897.237651</v>
+        <v>76897.237651000003</v>
       </c>
       <c r="L13" s="1">
-        <v>21.360344</v>
+        <v>21.360344000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1310.220000</v>
+        <v>1310.22</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.725000</v>
+        <v>-203.72499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>76907.751349</v>
+        <v>76907.751348999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.363264</v>
+        <v>21.363264000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.540000</v>
+        <v>1322.54</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.239000</v>
+        <v>-186.239</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>76918.263094</v>
+        <v>76918.263093999994</v>
       </c>
       <c r="V13" s="1">
-        <v>21.366184</v>
+        <v>21.366184000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.820000</v>
+        <v>-172.82</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>76928.725672</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.369090</v>
+        <v>21.36909</v>
       </c>
       <c r="AB13" s="1">
-        <v>1354.710000</v>
+        <v>1354.71</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.956000</v>
+        <v>-170.95599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>76939.215562</v>
+        <v>76939.215561999998</v>
       </c>
       <c r="AF13" s="1">
         <v>21.372004</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.566000</v>
+        <v>-180.566</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>76949.474814</v>
+        <v>76949.474814000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.374854</v>
+        <v>21.374853999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.830000</v>
+        <v>1389.83</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.161000</v>
+        <v>-210.161</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>76959.922543</v>
+        <v>76959.922542999993</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.377756</v>
+        <v>21.377756000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1412.230000</v>
+        <v>1412.23</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.471000</v>
+        <v>-253.471</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>76970.977872</v>
+        <v>76970.977872000003</v>
       </c>
       <c r="AU13" s="1">
         <v>21.380827</v>
       </c>
       <c r="AV13" s="1">
-        <v>1437.620000</v>
+        <v>1437.62</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.694000</v>
+        <v>-312.69400000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>76982.043618</v>
+        <v>76982.043617999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.383901</v>
+        <v>21.383901000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.059000</v>
+        <v>-364.05900000000003</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>76992.684324</v>
+        <v>76992.684324000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.386857</v>
+        <v>21.386856999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1544.420000</v>
+        <v>1544.42</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.432000</v>
+        <v>-608.43200000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>77003.910245</v>
+        <v>77003.910245000006</v>
       </c>
       <c r="BJ13" s="1">
         <v>21.389975</v>
       </c>
       <c r="BK13" s="1">
-        <v>1700.430000</v>
+        <v>1700.43</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1045.520000</v>
+        <v>-1045.52</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>77014.609447</v>
+        <v>77014.609446999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.392947</v>
+        <v>21.392946999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1996.410000</v>
+        <v>1996.41</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1800.500000</v>
+        <v>-1800.5</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>77025.628568</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.396008</v>
+        <v>21.396007999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2386.420000</v>
+        <v>2386.42</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2666.510000</v>
+        <v>-2666.51</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>77036.424490</v>
+        <v>77036.424490000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.399007</v>
+        <v>21.399007000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2866.600000</v>
+        <v>2866.6</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3611.230000</v>
+        <v>-3611.23</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>77048.377082</v>
+        <v>77048.377082000006</v>
       </c>
       <c r="CD13" s="1">
         <v>21.402327</v>
       </c>
       <c r="CE13" s="1">
-        <v>4282.140000</v>
+        <v>4282.1400000000003</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5870.300000</v>
+        <v>-5870.3</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>76877.138765</v>
+        <v>76877.138764999996</v>
       </c>
       <c r="B14" s="1">
         <v>21.354761</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D14" s="1">
-        <v>-304.767000</v>
+        <v>-304.767</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>76887.514080</v>
+        <v>76887.514079999994</v>
       </c>
       <c r="G14" s="1">
-        <v>21.357643</v>
+        <v>21.357642999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.910000</v>
+        <v>1273.9100000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.573000</v>
+        <v>-264.57299999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>76897.585345</v>
       </c>
       <c r="L14" s="1">
-        <v>21.360440</v>
+        <v>21.360440000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1310.160000</v>
+        <v>1310.1600000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.622000</v>
+        <v>-203.62200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>76908.101059</v>
+        <v>76908.101058999993</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.363361</v>
+        <v>21.363361000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.640000</v>
+        <v>1322.64</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.084000</v>
+        <v>-186.084</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>76918.922741</v>
+        <v>76918.922741000002</v>
       </c>
       <c r="V14" s="1">
         <v>21.366367</v>
       </c>
       <c r="W14" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.929000</v>
+        <v>-172.929</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>76929.106599</v>
+        <v>76929.106599000006</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.369196</v>
+        <v>21.369195999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.690000</v>
+        <v>1354.69</v>
       </c>
       <c r="AC14" s="1">
-        <v>-171.063000</v>
+        <v>-171.06299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>76939.582106</v>
+        <v>76939.582106000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.372106</v>
+        <v>21.372105999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.598000</v>
+        <v>-180.59800000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>76949.819532</v>
+        <v>76949.819531999994</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.374950</v>
+        <v>21.374949999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.186000</v>
+        <v>-210.18600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>76960.282639</v>
+        <v>76960.282638999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.377856</v>
+        <v>21.377856000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1412.280000</v>
+        <v>1412.28</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.500000</v>
+        <v>-253.5</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>76971.343431</v>
+        <v>76971.343431000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.380929</v>
+        <v>21.380928999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.666000</v>
+        <v>-312.666</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>76982.469801</v>
+        <v>76982.469800999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.384019</v>
+        <v>21.384018999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1457.490000</v>
+        <v>1457.49</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.993000</v>
+        <v>-363.99299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>76993.112837</v>
+        <v>76993.112836999993</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.386976</v>
+        <v>21.386976000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1544.410000</v>
+        <v>1544.41</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.428000</v>
+        <v>-608.428</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>77004.268853</v>
+        <v>77004.268853000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>21.390075</v>
       </c>
       <c r="BK14" s="1">
-        <v>1700.440000</v>
+        <v>1700.44</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1045.530000</v>
+        <v>-1045.53</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>77015.027111</v>
+        <v>77015.027111000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.393063</v>
+        <v>21.393063000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1996.350000</v>
+        <v>1996.35</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1800.390000</v>
+        <v>-1800.39</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>77026.053177</v>
+        <v>77026.053176999994</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.396126</v>
+        <v>21.396125999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2386.150000</v>
+        <v>2386.15</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2666.850000</v>
+        <v>-2666.85</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>77036.847578</v>
+        <v>77036.847578000001</v>
       </c>
       <c r="BY14" s="1">
         <v>21.399124</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2866.070000</v>
+        <v>2866.07</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3611.240000</v>
+        <v>-3611.24</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>77048.894409</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.402471</v>
+        <v>21.402470999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>4271.990000</v>
+        <v>4271.99</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5857.140000</v>
+        <v>-5857.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>76877.481512</v>
+        <v>76877.481511999998</v>
       </c>
       <c r="B15" s="1">
-        <v>21.354856</v>
+        <v>21.354856000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.680000</v>
+        <v>1247.68</v>
       </c>
       <c r="D15" s="1">
-        <v>-304.713000</v>
+        <v>-304.71300000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>76887.865248</v>
+        <v>76887.865248000002</v>
       </c>
       <c r="G15" s="1">
-        <v>21.357740</v>
+        <v>21.35774</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.795000</v>
+        <v>-264.79500000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>76898.240097</v>
+        <v>76898.240097000002</v>
       </c>
       <c r="L15" s="1">
-        <v>21.360622</v>
+        <v>21.360621999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1310.440000</v>
+        <v>1310.44</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.977000</v>
+        <v>-203.977</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>76908.761731</v>
+        <v>76908.761731000006</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.363545</v>
+        <v>21.363544999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.680000</v>
+        <v>1322.68</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.174000</v>
+        <v>-186.17400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>76919.298736</v>
+        <v>76919.298735999997</v>
       </c>
       <c r="V15" s="1">
-        <v>21.366472</v>
+        <v>21.366472000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.997000</v>
+        <v>-172.99700000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>76929.452312</v>
+        <v>76929.452311999994</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.369292</v>
+        <v>21.369292000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1354.510000</v>
+        <v>1354.51</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.813000</v>
+        <v>-170.81299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>76939.927322</v>
+        <v>76939.927322000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.372202</v>
+        <v>21.372202000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.545000</v>
+        <v>-180.54499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>76950.174668</v>
+        <v>76950.174668000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.375049</v>
+        <v>21.375049000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.217000</v>
+        <v>-210.21700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>76960.641246</v>
+        <v>76960.641245999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.377956</v>
+        <v>21.377956000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.455000</v>
+        <v>-253.45500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>76971.774448</v>
+        <v>76971.774447999996</v>
       </c>
       <c r="AU15" s="1">
         <v>21.381048</v>
       </c>
       <c r="AV15" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.644000</v>
+        <v>-312.64400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>76982.755873</v>
+        <v>76982.755873000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.384099</v>
+        <v>21.384098999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.049000</v>
+        <v>-364.04899999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>76993.408947</v>
+        <v>76993.408947000004</v>
       </c>
       <c r="BE15" s="1">
         <v>21.387058</v>
       </c>
       <c r="BF15" s="1">
-        <v>1544.460000</v>
+        <v>1544.46</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.445000</v>
+        <v>-608.44500000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>77004.644324</v>
+        <v>77004.644323999994</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.390179</v>
       </c>
       <c r="BK15" s="1">
-        <v>1700.370000</v>
+        <v>1700.37</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1045.520000</v>
+        <v>-1045.52</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>77015.424374</v>
+        <v>77015.424373999995</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.393173</v>
+        <v>21.393173000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1996.270000</v>
+        <v>1996.27</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1800.490000</v>
+        <v>-1800.49</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>77026.465333</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.396240</v>
+        <v>21.396239999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2385.820000</v>
+        <v>2385.8200000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2666.640000</v>
+        <v>-2666.64</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>77037.274672</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.399243</v>
+        <v>21.399242999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2866.410000</v>
+        <v>2866.41</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3611.340000</v>
+        <v>-3611.34</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>77049.413777</v>
+        <v>77049.413776999994</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.402615</v>
+        <v>21.402615000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4259.820000</v>
+        <v>4259.82</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5869.170000</v>
+        <v>-5869.17</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>76878.141707</v>
+        <v>76878.141707000002</v>
       </c>
       <c r="B16" s="1">
-        <v>21.355039</v>
+        <v>21.355039000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.721000</v>
+        <v>-304.721</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>76888.527406</v>
+        <v>76888.527405999994</v>
       </c>
       <c r="G16" s="1">
-        <v>21.357924</v>
+        <v>21.357924000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.830000</v>
+        <v>1273.83</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.410000</v>
+        <v>-264.41000000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>76898.623504</v>
+        <v>76898.623504000003</v>
       </c>
       <c r="L16" s="1">
-        <v>21.360729</v>
+        <v>21.360728999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1310.100000</v>
+        <v>1310.0999999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.867000</v>
+        <v>-203.86699999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>76909.148084</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.363652</v>
+        <v>21.363651999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.630000</v>
+        <v>1322.63</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.230000</v>
+        <v>-186.23</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>76919.645909</v>
+        <v>76919.645908999999</v>
       </c>
       <c r="V16" s="1">
-        <v>21.366568</v>
+        <v>21.366568000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.920000</v>
+        <v>-172.92</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>76929.801495</v>
+        <v>76929.801495000007</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.369389</v>
+        <v>21.369389000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1354.700000</v>
+        <v>1354.7</v>
       </c>
       <c r="AC16" s="1">
-        <v>-171.062000</v>
+        <v>-171.06200000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>76940.276506</v>
+        <v>76940.276505999995</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.372299</v>
+        <v>21.372299000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.598000</v>
+        <v>-180.59800000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>76950.627516</v>
+        <v>76950.627515999993</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.375174</v>
+        <v>21.375174000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.760000</v>
+        <v>1389.76</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.195000</v>
+        <v>-210.19499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>76961.362963</v>
+        <v>76961.362963000007</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.378156</v>
+        <v>21.378156000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1412.260000</v>
+        <v>1412.26</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.511000</v>
+        <v>-253.511</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>76972.070817</v>
@@ -4214,73 +4630,73 @@
         <v>21.381131</v>
       </c>
       <c r="AV16" s="1">
-        <v>1437.620000</v>
+        <v>1437.62</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.678000</v>
+        <v>-312.678</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>76983.118448</v>
+        <v>76983.118447999994</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.384200</v>
+        <v>21.3842</v>
       </c>
       <c r="BA16" s="1">
-        <v>1457.460000</v>
+        <v>1457.46</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.027000</v>
+        <v>-364.02699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>76993.768857</v>
+        <v>76993.768857000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.387158</v>
+        <v>21.387157999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1544.440000</v>
+        <v>1544.44</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.456000</v>
+        <v>-608.45600000000002</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>77005.019827</v>
+        <v>77005.019826999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.390283</v>
       </c>
       <c r="BK16" s="1">
-        <v>1700.400000</v>
+        <v>1700.4</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.550000</v>
+        <v>-1045.55</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>77015.851957</v>
+        <v>77015.851957000006</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.393292</v>
+        <v>21.393291999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1996.430000</v>
+        <v>1996.43</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1800.430000</v>
+        <v>-1800.43</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>77026.902791</v>
@@ -4289,362 +4705,362 @@
         <v>21.396362</v>
       </c>
       <c r="BU16" s="1">
-        <v>2385.750000</v>
+        <v>2385.75</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2666.640000</v>
+        <v>-2666.64</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>77037.685320</v>
+        <v>77037.685320000004</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.399357</v>
+        <v>21.399356999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2866.550000</v>
+        <v>2866.55</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3611.770000</v>
+        <v>-3611.77</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>77049.928072</v>
+        <v>77049.928071999995</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.402758</v>
+        <v>21.402757999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4274.110000</v>
+        <v>4274.1099999999997</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5878.090000</v>
+        <v>-5878.09</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>76878.507227</v>
+        <v>76878.507226999995</v>
       </c>
       <c r="B17" s="1">
         <v>21.355141</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D17" s="1">
-        <v>-304.496000</v>
+        <v>-304.49599999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>76888.898413</v>
+        <v>76888.898413000003</v>
       </c>
       <c r="G17" s="1">
         <v>21.358027</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.830000</v>
+        <v>1273.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.651000</v>
+        <v>-264.65100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>76898.968688</v>
+        <v>76898.968687999994</v>
       </c>
       <c r="L17" s="1">
-        <v>21.360825</v>
+        <v>21.360824999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.180000</v>
+        <v>1310.18</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.042000</v>
+        <v>-204.042</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>76909.496769</v>
+        <v>76909.496769000005</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.363749</v>
+        <v>21.363748999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.530000</v>
+        <v>1322.53</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.229000</v>
+        <v>-186.22900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>76919.991124</v>
+        <v>76919.991123999993</v>
       </c>
       <c r="V17" s="1">
         <v>21.366664</v>
       </c>
       <c r="W17" s="1">
-        <v>1336.280000</v>
+        <v>1336.28</v>
       </c>
       <c r="X17" s="1">
-        <v>-173.006000</v>
+        <v>-173.006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>76930.221111</v>
+        <v>76930.221111000006</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.369506</v>
+        <v>21.369506000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1354.570000</v>
+        <v>1354.57</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.964000</v>
+        <v>-170.964</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>76940.696122</v>
+        <v>76940.696121999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.372416</v>
+        <v>21.372416000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.664000</v>
+        <v>-180.66399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>76950.879483</v>
+        <v>76950.879482999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.375244</v>
+        <v>21.375243999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.780000</v>
+        <v>1389.78</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.221000</v>
+        <v>-210.221</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>76961.723053</v>
+        <v>76961.723052999994</v>
       </c>
       <c r="AP17" s="1">
         <v>21.378256</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.495000</v>
+        <v>-253.495</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>76972.435615</v>
+        <v>76972.435614999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.381232</v>
+        <v>21.381232000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1437.660000</v>
+        <v>1437.66</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.690000</v>
+        <v>-312.69</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>76983.478571</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.384300</v>
+        <v>21.3843</v>
       </c>
       <c r="BA17" s="1">
-        <v>1457.470000</v>
+        <v>1457.47</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.004000</v>
+        <v>-364.00400000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>76994.127650</v>
+        <v>76994.127649999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.387258</v>
+        <v>21.387257999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.427000</v>
+        <v>-608.42700000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>77005.791076</v>
+        <v>77005.791075999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.390498</v>
+        <v>21.390498000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1700.490000</v>
+        <v>1700.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1045.570000</v>
+        <v>-1045.57</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>77016.242277</v>
+        <v>77016.242276999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.393401</v>
+        <v>21.393401000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1996.400000</v>
+        <v>1996.4</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1800.460000</v>
+        <v>-1800.46</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>77027.328358</v>
+        <v>77027.328357999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.396480</v>
+        <v>21.39648</v>
       </c>
       <c r="BU17" s="1">
-        <v>2385.930000</v>
+        <v>2385.9299999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2666.180000</v>
+        <v>-2666.18</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>77038.138664</v>
+        <v>77038.138663999998</v>
       </c>
       <c r="BY17" s="1">
         <v>21.399483</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2866.790000</v>
+        <v>2866.79</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3611.190000</v>
+        <v>-3611.19</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>77050.766343</v>
+        <v>77050.766342999996</v>
       </c>
       <c r="CD17" s="1">
         <v>21.402991</v>
       </c>
       <c r="CE17" s="1">
-        <v>4278.670000</v>
+        <v>4278.67</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5861.250000</v>
+        <v>-5861.25</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>76878.854427</v>
+        <v>76878.854426999998</v>
       </c>
       <c r="B18" s="1">
-        <v>21.355237</v>
+        <v>21.355236999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D18" s="1">
-        <v>-304.760000</v>
+        <v>-304.76</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>76889.243134</v>
+        <v>76889.243134000004</v>
       </c>
       <c r="G18" s="1">
-        <v>21.358123</v>
+        <v>21.358122999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.220000</v>
+        <v>1273.22</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.196000</v>
+        <v>-265.19600000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>76899.318367</v>
       </c>
       <c r="L18" s="1">
-        <v>21.360922</v>
+        <v>21.360921999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1309.930000</v>
+        <v>1309.93</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.958000</v>
+        <v>-203.958</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>76909.849425</v>
+        <v>76909.849424999993</v>
       </c>
       <c r="Q18" s="1">
         <v>21.363847</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.510000</v>
+        <v>1322.51</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.179000</v>
+        <v>-186.179</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>76920.424627</v>
@@ -4653,163 +5069,163 @@
         <v>21.366785</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.410000</v>
+        <v>1336.41</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.944000</v>
+        <v>-172.94399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>76930.499398</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.369583</v>
+        <v>21.369582999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1354.840000</v>
+        <v>1354.84</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.891000</v>
+        <v>-170.89099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>76940.976856</v>
+        <v>76940.976855999994</v>
       </c>
       <c r="AF18" s="1">
         <v>21.372494</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.641000</v>
+        <v>-180.64099999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>76951.226187</v>
+        <v>76951.226186999993</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.375341</v>
+        <v>21.375340999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.780000</v>
+        <v>1389.78</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.164000</v>
+        <v>-210.16399999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>76962.083628</v>
+        <v>76962.083627999993</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.378357</v>
+        <v>21.378357000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1412.280000</v>
+        <v>1412.28</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.490000</v>
+        <v>-253.49</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>76972.799678</v>
+        <v>76972.799677999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.381333</v>
+        <v>21.381333000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1437.660000</v>
+        <v>1437.66</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.669000</v>
+        <v>-312.66899999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>76984.198773</v>
+        <v>76984.198772999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.384500</v>
+        <v>21.384499999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1457.470000</v>
+        <v>1457.47</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.995000</v>
+        <v>-363.995</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>76994.852839</v>
+        <v>76994.852838999999</v>
       </c>
       <c r="BE18" s="1">
         <v>21.387459</v>
       </c>
       <c r="BF18" s="1">
-        <v>1544.450000</v>
+        <v>1544.45</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.368000</v>
+        <v>-608.36800000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>77006.169026</v>
+        <v>77006.169026000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.390603</v>
+        <v>21.390602999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1700.420000</v>
+        <v>1700.42</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1045.540000</v>
+        <v>-1045.54</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>77016.663380</v>
+        <v>77016.663379999998</v>
       </c>
       <c r="BO18" s="1">
         <v>21.393518</v>
       </c>
       <c r="BP18" s="1">
-        <v>1996.240000</v>
+        <v>1996.24</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1800.280000</v>
+        <v>-1800.28</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>77027.742022</v>
+        <v>77027.742022000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.396595</v>
+        <v>21.396595000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2385.740000</v>
+        <v>2385.7399999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2666.410000</v>
+        <v>-2666.41</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>77038.872743</v>
@@ -4818,1722 +5234,1722 @@
         <v>21.399687</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2866.130000</v>
+        <v>2866.13</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3611.400000</v>
+        <v>-3611.4</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>77050.970706</v>
+        <v>77050.970705999993</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.403047</v>
+        <v>21.403047000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4260.940000</v>
+        <v>4260.9399999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5861.110000</v>
+        <v>-5861.11</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>76879.198154</v>
+        <v>76879.198153999998</v>
       </c>
       <c r="B19" s="1">
-        <v>21.355333</v>
+        <v>21.355333000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.770000</v>
+        <v>1247.77</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.826000</v>
+        <v>-304.82600000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>76889.586364</v>
+        <v>76889.586364000003</v>
       </c>
       <c r="G19" s="1">
-        <v>21.358218</v>
+        <v>21.358218000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.310000</v>
+        <v>1273.31</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.291000</v>
+        <v>-264.291</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>76899.751375</v>
+        <v>76899.751375000007</v>
       </c>
       <c r="L19" s="1">
-        <v>21.361042</v>
+        <v>21.361042000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.050000</v>
+        <v>1310.05</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.713000</v>
+        <v>-203.71299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>76910.273009</v>
+        <v>76910.273008999997</v>
       </c>
       <c r="Q19" s="1">
         <v>21.363965</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.680000</v>
+        <v>1322.68</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.129000</v>
+        <v>-186.12899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>76920.689491</v>
+        <v>76920.689490999997</v>
       </c>
       <c r="V19" s="1">
-        <v>21.366858</v>
+        <v>21.366858000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.152000</v>
+        <v>-173.15199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>76930.848053</v>
+        <v>76930.848052999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.369680</v>
+        <v>21.369679999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1354.690000</v>
+        <v>1354.69</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.888000</v>
+        <v>-170.88800000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>76941.326536</v>
+        <v>76941.326535999993</v>
       </c>
       <c r="AF19" s="1">
         <v>21.372591</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.588000</v>
+        <v>-180.58799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>76951.574874</v>
+        <v>76951.574873999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.375437</v>
+        <v>21.375437000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.780000</v>
+        <v>1389.78</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.195000</v>
+        <v>-210.19499999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>76962.808764</v>
+        <v>76962.808764000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.378558</v>
+        <v>21.378558000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.525000</v>
+        <v>-253.52500000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>76973.529789</v>
+        <v>76973.529788999993</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.381536</v>
+        <v>21.381536000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.656000</v>
+        <v>-312.65600000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>76984.574734</v>
+        <v>76984.574733999994</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.384604</v>
       </c>
       <c r="BA19" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.062000</v>
+        <v>-364.06200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>76995.210918</v>
+        <v>76995.210917999997</v>
       </c>
       <c r="BE19" s="1">
         <v>21.387559</v>
       </c>
       <c r="BF19" s="1">
-        <v>1544.380000</v>
+        <v>1544.38</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.417000</v>
+        <v>-608.41700000000003</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>77006.544003</v>
+        <v>77006.544003000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.390707</v>
+        <v>21.390706999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1700.490000</v>
+        <v>1700.49</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1045.480000</v>
+        <v>-1045.48</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>77017.366211</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.393713</v>
+        <v>21.393713000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1996.340000</v>
+        <v>1996.34</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1800.180000</v>
+        <v>-1800.18</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>77028.290108</v>
+        <v>77028.290108000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.396747</v>
+        <v>21.396747000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2385.640000</v>
+        <v>2385.64</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2665.980000</v>
+        <v>-2665.98</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>77038.985335</v>
+        <v>77038.985335000005</v>
       </c>
       <c r="BY19" s="1">
         <v>21.399718</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2866.040000</v>
+        <v>2866.04</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3610.870000</v>
+        <v>-3610.87</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>77051.487495</v>
+        <v>77051.487494999994</v>
       </c>
       <c r="CD19" s="1">
         <v>21.403191</v>
       </c>
       <c r="CE19" s="1">
-        <v>4259.960000</v>
+        <v>4259.96</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5862.070000</v>
+        <v>-5862.07</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>76879.633641</v>
+        <v>76879.633640999993</v>
       </c>
       <c r="B20" s="1">
-        <v>21.355454</v>
+        <v>21.355454000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.894000</v>
+        <v>-304.89400000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>76890.014908</v>
+        <v>76890.014907999997</v>
       </c>
       <c r="G20" s="1">
-        <v>21.358337</v>
+        <v>21.358336999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.240000</v>
+        <v>1273.24</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.861000</v>
+        <v>-264.86099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>76900.018223</v>
+        <v>76900.018223000006</v>
       </c>
       <c r="L20" s="1">
-        <v>21.361116</v>
+        <v>21.361115999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1310.350000</v>
+        <v>1310.3499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.920000</v>
+        <v>-203.92</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>76910.551761</v>
+        <v>76910.551760999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.364042</v>
+        <v>21.364042000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.630000</v>
+        <v>1322.63</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.113000</v>
+        <v>-186.113</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>76921.032724</v>
+        <v>76921.032724000004</v>
       </c>
       <c r="V20" s="1">
         <v>21.366954</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.210000</v>
+        <v>1336.21</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.149000</v>
+        <v>-173.149</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>76931.196774</v>
+        <v>76931.196773999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.369777</v>
+        <v>21.369776999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1354.710000</v>
+        <v>1354.71</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.863000</v>
+        <v>-170.863</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>76941.669305</v>
+        <v>76941.669305000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.372686</v>
+        <v>21.372686000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.160000</v>
+        <v>1368.16</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.560000</v>
+        <v>-180.56</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>76952.273241</v>
+        <v>76952.273241000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.375631</v>
+        <v>21.375630999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.810000</v>
+        <v>1389.81</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.180000</v>
+        <v>-210.18</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>76963.190224</v>
+        <v>76963.190224000005</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.378664</v>
+        <v>21.378664000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1412.290000</v>
+        <v>1412.29</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.492000</v>
+        <v>-253.49199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>76973.918653</v>
+        <v>76973.918653000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.381644</v>
+        <v>21.381644000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1437.630000</v>
+        <v>1437.63</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.647000</v>
+        <v>-312.64699999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>76984.953648</v>
+        <v>76984.953647999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.384709</v>
+        <v>21.384709000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1457.530000</v>
+        <v>1457.53</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.003000</v>
+        <v>-364.00299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>76995.893440</v>
+        <v>76995.89344</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.387748</v>
+        <v>21.387747999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1544.420000</v>
+        <v>1544.42</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.422000</v>
+        <v>-608.42200000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>77007.230960</v>
+        <v>77007.230960000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.390897</v>
+        <v>21.390896999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1700.470000</v>
+        <v>1700.47</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1045.570000</v>
+        <v>-1045.57</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>77017.496661</v>
+        <v>77017.496660999997</v>
       </c>
       <c r="BO20" s="1">
         <v>21.393749</v>
       </c>
       <c r="BP20" s="1">
-        <v>1996.180000</v>
+        <v>1996.18</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1800.410000</v>
+        <v>-1800.41</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>77028.596629</v>
+        <v>77028.596629000007</v>
       </c>
       <c r="BT20" s="1">
         <v>21.396832</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.380000</v>
+        <v>2385.38</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2665.940000</v>
+        <v>-2665.94</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>77039.428759</v>
+        <v>77039.428759000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.399841</v>
+        <v>21.399840999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2866.910000</v>
+        <v>2866.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3610.990000</v>
+        <v>-3610.99</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>77052.035574</v>
+        <v>77052.035573999994</v>
       </c>
       <c r="CD20" s="1">
         <v>21.403343</v>
       </c>
       <c r="CE20" s="1">
-        <v>4273.740000</v>
+        <v>4273.74</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5858.570000</v>
+        <v>-5858.57</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>76879.895642</v>
+        <v>76879.895642000003</v>
       </c>
       <c r="B21" s="1">
-        <v>21.355527</v>
+        <v>21.355526999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.930000</v>
+        <v>1247.93</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.899000</v>
+        <v>-304.899</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>76890.279771</v>
+        <v>76890.279771000001</v>
       </c>
       <c r="G21" s="1">
         <v>21.358411</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.200000</v>
+        <v>1273.2</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.670000</v>
+        <v>-264.67</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>76900.362447</v>
+        <v>76900.362447000007</v>
       </c>
       <c r="L21" s="1">
-        <v>21.361212</v>
+        <v>21.361211999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.160000</v>
+        <v>1310.1600000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.747000</v>
+        <v>-203.74700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>76910.902929</v>
+        <v>76910.902929000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.364140</v>
+        <v>21.364139999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.690000</v>
+        <v>1322.69</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.122000</v>
+        <v>-186.12200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>76921.376978</v>
       </c>
       <c r="V21" s="1">
-        <v>21.367049</v>
+        <v>21.367049000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.951000</v>
+        <v>-172.95099999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>76931.892628</v>
+        <v>76931.892628000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.369970</v>
+        <v>21.369969999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1354.660000</v>
+        <v>1354.66</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.899000</v>
+        <v>-170.899</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>76942.355749</v>
+        <v>76942.355748999995</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.372877</v>
+        <v>21.372876999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.270000</v>
+        <v>1368.27</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.596000</v>
+        <v>-180.596</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>76952.621470</v>
+        <v>76952.621469999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.375728</v>
+        <v>21.375727999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.182000</v>
+        <v>-210.18199999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>76963.545322</v>
+        <v>76963.545322000005</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.378763</v>
+        <v>21.378762999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.478000</v>
+        <v>-253.47800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>76974.284700</v>
+        <v>76974.284700000004</v>
       </c>
       <c r="AU21" s="1">
         <v>21.381746</v>
       </c>
       <c r="AV21" s="1">
-        <v>1437.640000</v>
+        <v>1437.64</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.659000</v>
+        <v>-312.65899999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>76985.631182</v>
+        <v>76985.631181999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>21.384898</v>
       </c>
       <c r="BA21" s="1">
-        <v>1457.510000</v>
+        <v>1457.51</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.038000</v>
+        <v>-364.03800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>76996.324430</v>
+        <v>76996.324429999993</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.387868</v>
+        <v>21.387868000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1544.450000</v>
+        <v>1544.45</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.434000</v>
+        <v>-608.43399999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>77007.342594</v>
+        <v>77007.342594000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.390928</v>
+        <v>21.390927999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1700.470000</v>
+        <v>1700.47</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1045.430000</v>
+        <v>-1045.43</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>77017.907843</v>
+        <v>77017.907842999994</v>
       </c>
       <c r="BO21" s="1">
         <v>21.393863</v>
       </c>
       <c r="BP21" s="1">
-        <v>1996.350000</v>
+        <v>1996.35</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1800.270000</v>
+        <v>-1800.27</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>77029.006821</v>
+        <v>77029.006821000003</v>
       </c>
       <c r="BT21" s="1">
         <v>21.396946</v>
       </c>
       <c r="BU21" s="1">
-        <v>2385.230000</v>
+        <v>2385.23</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2665.810000</v>
+        <v>-2665.81</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>77039.862762</v>
+        <v>77039.862762000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.399962</v>
+        <v>21.399961999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2866.340000</v>
+        <v>2866.34</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3610.570000</v>
+        <v>-3610.57</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>77052.566332</v>
+        <v>77052.566332000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.403491</v>
+        <v>21.403490999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4260.040000</v>
+        <v>4260.04</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5868.390000</v>
+        <v>-5868.39</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>76880.236776</v>
+        <v>76880.236776000005</v>
       </c>
       <c r="B22" s="1">
-        <v>21.355621</v>
+        <v>21.355620999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.700000</v>
+        <v>1247.7</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.644000</v>
+        <v>-304.64400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>76890.623534</v>
+        <v>76890.623533999998</v>
       </c>
       <c r="G22" s="1">
-        <v>21.358507</v>
+        <v>21.358506999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.320000</v>
+        <v>1273.32</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.401000</v>
+        <v>-265.40100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>76900.710403</v>
+        <v>76900.710403000005</v>
       </c>
       <c r="L22" s="1">
-        <v>21.361308</v>
+        <v>21.361308000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.000000</v>
+        <v>1310</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.768000</v>
+        <v>-203.768</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>76911.598833</v>
+        <v>76911.598832999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.364333</v>
+        <v>21.364332999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.670000</v>
+        <v>1322.67</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.184000</v>
+        <v>-186.184</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>76922.062417</v>
+        <v>76922.062416999994</v>
       </c>
       <c r="V22" s="1">
-        <v>21.367240</v>
+        <v>21.367239999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.708000</v>
+        <v>-172.708</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>76932.242804</v>
+        <v>76932.242803999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.370067</v>
+        <v>21.370066999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.660000</v>
+        <v>1354.66</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.838000</v>
+        <v>-170.83799999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>76942.700952</v>
+        <v>76942.700951999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.372972</v>
+        <v>21.372972000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.574000</v>
+        <v>-180.57400000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>76952.971624</v>
+        <v>76952.971623999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.375825</v>
+        <v>21.375824999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.800000</v>
+        <v>1389.8</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.166000</v>
+        <v>-210.166</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>76964.216907</v>
+        <v>76964.216906999995</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.378949</v>
+        <v>21.378948999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.477000</v>
+        <v>-253.477</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>76974.965707</v>
+        <v>76974.965706999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.381935</v>
+        <v>21.381934999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1437.620000</v>
+        <v>1437.62</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.650000</v>
+        <v>-312.64999999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>76986.035917</v>
+        <v>76986.035917000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.385010</v>
+        <v>21.385010000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1457.480000</v>
+        <v>1457.48</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.994000</v>
+        <v>-363.99400000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>76996.681054</v>
+        <v>76996.681054000001</v>
       </c>
       <c r="BE22" s="1">
         <v>21.387967</v>
       </c>
       <c r="BF22" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.384000</v>
+        <v>-608.38400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>77007.694752</v>
+        <v>77007.694751999996</v>
       </c>
       <c r="BJ22" s="1">
         <v>21.391026</v>
       </c>
       <c r="BK22" s="1">
-        <v>1700.410000</v>
+        <v>1700.41</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1045.430000</v>
+        <v>-1045.43</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>77018.303154</v>
+        <v>77018.303153999994</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.393973</v>
+        <v>21.393972999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1996.320000</v>
+        <v>1996.32</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1800.230000</v>
+        <v>-1800.23</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>77029.438339</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.397066</v>
+        <v>21.397065999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.130000</v>
+        <v>2385.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2665.800000</v>
+        <v>-2665.8</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>77040.288821</v>
+        <v>77040.288820999995</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.400080</v>
+        <v>21.400079999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.950000</v>
+        <v>2865.95</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3610.480000</v>
+        <v>-3610.48</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>77053.081669</v>
+        <v>77053.081669000007</v>
       </c>
       <c r="CD22" s="1">
         <v>21.403634</v>
       </c>
       <c r="CE22" s="1">
-        <v>4272.910000</v>
+        <v>4272.91</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5879.160000</v>
+        <v>-5879.16</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>76880.579550</v>
+        <v>76880.579549999995</v>
       </c>
       <c r="B23" s="1">
-        <v>21.355717</v>
+        <v>21.355716999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.694000</v>
+        <v>-304.69400000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>76890.966731</v>
+        <v>76890.966730999993</v>
       </c>
       <c r="G23" s="1">
-        <v>21.358602</v>
+        <v>21.358602000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.510000</v>
+        <v>1273.51</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.441000</v>
+        <v>-264.44099999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>76901.403052</v>
+        <v>76901.403051999994</v>
       </c>
       <c r="L23" s="1">
-        <v>21.361501</v>
+        <v>21.361501000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.360000</v>
+        <v>1310.3599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.409000</v>
+        <v>-203.40899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>76911.946510</v>
+        <v>76911.946509999994</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.364430</v>
+        <v>21.364429999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.630000</v>
+        <v>1322.63</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.127000</v>
+        <v>-186.12700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>76922.405152</v>
+        <v>76922.405152000007</v>
       </c>
       <c r="V23" s="1">
-        <v>21.367335</v>
+        <v>21.367335000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1336.550000</v>
+        <v>1336.55</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.878000</v>
+        <v>-172.87799999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>76932.592979</v>
+        <v>76932.592978999994</v>
       </c>
       <c r="AA23" s="1">
         <v>21.370165</v>
       </c>
       <c r="AB23" s="1">
-        <v>1354.680000</v>
+        <v>1354.68</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.907000</v>
+        <v>-170.90700000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>76943.046165</v>
+        <v>76943.046165000007</v>
       </c>
       <c r="AF23" s="1">
         <v>21.373068</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.300000</v>
+        <v>1368.3</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.482000</v>
+        <v>-180.482</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>76953.632307</v>
+        <v>76953.632307000007</v>
       </c>
       <c r="AK23" s="1">
         <v>21.376009</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.800000</v>
+        <v>1389.8</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.190000</v>
+        <v>-210.19</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>76964.625144</v>
+        <v>76964.625144000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.379063</v>
+        <v>21.379062999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1412.230000</v>
+        <v>1412.23</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.474000</v>
+        <v>-253.47399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>76975.411642</v>
+        <v>76975.411642000006</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.382059</v>
+        <v>21.382059000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1437.610000</v>
+        <v>1437.61</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.626000</v>
+        <v>-312.62599999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>76986.413867</v>
+        <v>76986.413866999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.385115</v>
+        <v>21.385114999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1457.480000</v>
+        <v>1457.48</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.997000</v>
+        <v>-363.99700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>76997.041151</v>
+        <v>76997.041150999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.388067</v>
+        <v>21.388066999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1544.430000</v>
+        <v>1544.43</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.386000</v>
+        <v>-608.38599999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>77008.070721</v>
+        <v>77008.070720999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.391131</v>
+        <v>21.391131000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1700.440000</v>
+        <v>1700.44</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1045.440000</v>
+        <v>-1045.44</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>77018.726241</v>
+        <v>77018.726240999997</v>
       </c>
       <c r="BO23" s="1">
         <v>21.394091</v>
       </c>
       <c r="BP23" s="1">
-        <v>1996.230000</v>
+        <v>1996.23</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1800.150000</v>
+        <v>-1800.15</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>77029.866386</v>
+        <v>77029.866385999994</v>
       </c>
       <c r="BT23" s="1">
         <v>21.397185</v>
       </c>
       <c r="BU23" s="1">
-        <v>2384.960000</v>
+        <v>2384.96</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2665.420000</v>
+        <v>-2665.42</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>77040.705956</v>
+        <v>77040.705956000005</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.400196</v>
+        <v>21.400196000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2865.900000</v>
+        <v>2865.9</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3611.060000</v>
+        <v>-3611.06</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>77053.601939</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.403778</v>
+        <v>21.403777999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4280.930000</v>
+        <v>4280.93</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5863.230000</v>
+        <v>-5863.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>76881.262999</v>
+        <v>76881.262998999999</v>
       </c>
       <c r="B24" s="1">
-        <v>21.355906</v>
+        <v>21.355906000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.820000</v>
+        <v>1247.82</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.877000</v>
+        <v>-304.87700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>76891.657161</v>
+        <v>76891.657160999996</v>
       </c>
       <c r="G24" s="1">
         <v>21.358794</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.830000</v>
+        <v>1273.83</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.259000</v>
+        <v>-264.25900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>76901.747284</v>
+        <v>76901.747283999997</v>
       </c>
       <c r="L24" s="1">
-        <v>21.361596</v>
+        <v>21.361595999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1310.380000</v>
+        <v>1310.3800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.778000</v>
+        <v>-203.77799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>76912.297190</v>
+        <v>76912.297189999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.364527</v>
+        <v>21.364526999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.106000</v>
+        <v>-186.10599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>76922.749413</v>
+        <v>76922.749412999998</v>
       </c>
       <c r="V24" s="1">
-        <v>21.367430</v>
+        <v>21.367429999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1336.760000</v>
+        <v>1336.76</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.805000</v>
+        <v>-172.80500000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>76933.257133</v>
+        <v>76933.257133000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.370349</v>
+        <v>21.370349000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1354.670000</v>
+        <v>1354.67</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.926000</v>
+        <v>-170.92599999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>76943.702870</v>
+        <v>76943.702869999994</v>
       </c>
       <c r="AF24" s="1">
         <v>21.373251</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.627000</v>
+        <v>-180.62700000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>76954.017177</v>
+        <v>76954.017177000002</v>
       </c>
       <c r="AK24" s="1">
         <v>21.376116</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.790000</v>
+        <v>1389.79</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.197000</v>
+        <v>-210.197</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>76965.009048</v>
+        <v>76965.009048000007</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.379169</v>
+        <v>21.379169000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.495000</v>
+        <v>-253.495</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>76975.780138</v>
+        <v>76975.780138000002</v>
       </c>
       <c r="AU24" s="1">
         <v>21.382161</v>
       </c>
       <c r="AV24" s="1">
-        <v>1437.660000</v>
+        <v>1437.66</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.686000</v>
+        <v>-312.68599999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>76986.789835</v>
+        <v>76986.789835000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.385219</v>
+        <v>21.385218999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1457.470000</v>
+        <v>1457.47</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.006000</v>
+        <v>-364.00599999999997</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>76997.477133</v>
+        <v>76997.477132999993</v>
       </c>
       <c r="BE24" s="1">
         <v>21.388188</v>
       </c>
       <c r="BF24" s="1">
-        <v>1544.420000</v>
+        <v>1544.42</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.364000</v>
+        <v>-608.36400000000003</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>77008.500810</v>
+        <v>77008.500809999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.391250</v>
+        <v>21.391249999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1700.410000</v>
+        <v>1700.41</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1045.440000</v>
+        <v>-1045.44</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>77019.124065</v>
+        <v>77019.124064999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.394201</v>
+        <v>21.394200999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1996.320000</v>
+        <v>1996.32</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1800.240000</v>
+        <v>-1800.24</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>77030.277602</v>
+        <v>77030.277602000002</v>
       </c>
       <c r="BT24" s="1">
         <v>21.397299</v>
       </c>
       <c r="BU24" s="1">
-        <v>2384.820000</v>
+        <v>2384.8200000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2665.670000</v>
+        <v>-2665.67</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>77041.132052</v>
+        <v>77041.132052000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.400314</v>
+        <v>21.400314000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2867.070000</v>
+        <v>2867.07</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3610.890000</v>
+        <v>-3610.89</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>77054.118289</v>
+        <v>77054.118289000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.403922</v>
+        <v>21.403922000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4265.330000</v>
+        <v>4265.33</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5857.720000</v>
+        <v>-5857.72</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>76881.606728</v>
+        <v>76881.606727999999</v>
       </c>
       <c r="B25" s="1">
         <v>21.356002</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.760000</v>
+        <v>1247.76</v>
       </c>
       <c r="D25" s="1">
-        <v>-304.935000</v>
+        <v>-304.935</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>76891.999403</v>
+        <v>76891.999402999994</v>
       </c>
       <c r="G25" s="1">
-        <v>21.358889</v>
+        <v>21.358889000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.660000</v>
+        <v>1273.6600000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.990000</v>
+        <v>-264.99</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>76902.094475</v>
+        <v>76902.094475000005</v>
       </c>
       <c r="L25" s="1">
-        <v>21.361693</v>
+        <v>21.361692999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.090000</v>
+        <v>1310.0899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.039000</v>
+        <v>-204.03899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>76912.969261</v>
+        <v>76912.969261000006</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.364714</v>
+        <v>21.364713999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.680000</v>
+        <v>1322.68</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.096000</v>
+        <v>-186.096</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>76923.406575</v>
+        <v>76923.406575000001</v>
       </c>
       <c r="V25" s="1">
-        <v>21.367613</v>
+        <v>21.367612999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.855000</v>
+        <v>-172.85499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>76933.637095</v>
+        <v>76933.637094999998</v>
       </c>
       <c r="AA25" s="1">
         <v>21.370455</v>
       </c>
       <c r="AB25" s="1">
-        <v>1354.730000</v>
+        <v>1354.73</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.950000</v>
+        <v>-170.95</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>76944.081316</v>
+        <v>76944.081315999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.373356</v>
+        <v>21.373356000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.520000</v>
+        <v>-180.52</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>76954.364387</v>
+        <v>76954.364386999994</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.376212</v>
+        <v>21.376211999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1389.800000</v>
+        <v>1389.8</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.159000</v>
+        <v>-210.15899999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>76965.370600</v>
+        <v>76965.370599999995</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.379270</v>
+        <v>21.379270000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1412.260000</v>
+        <v>1412.26</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.483000</v>
+        <v>-253.483</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>76976.140729</v>
+        <v>76976.140729000006</v>
       </c>
       <c r="AU25" s="1">
         <v>21.382261</v>
       </c>
       <c r="AV25" s="1">
-        <v>1437.650000</v>
+        <v>1437.65</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.638000</v>
+        <v>-312.63799999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>76987.226811</v>
@@ -6542,362 +6958,363 @@
         <v>21.385341</v>
       </c>
       <c r="BA25" s="1">
-        <v>1457.490000</v>
+        <v>1457.49</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.997000</v>
+        <v>-363.99700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>76997.766301</v>
+        <v>76997.766300999996</v>
       </c>
       <c r="BE25" s="1">
         <v>21.388268</v>
       </c>
       <c r="BF25" s="1">
-        <v>1544.450000</v>
+        <v>1544.45</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.376000</v>
+        <v>-608.37599999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>77008.831087</v>
+        <v>77008.831086999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.391342</v>
+        <v>21.391342000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1700.380000</v>
+        <v>1700.38</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1045.420000</v>
+        <v>-1045.42</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>77019.538688</v>
+        <v>77019.538688000001</v>
       </c>
       <c r="BO25" s="1">
         <v>21.394316</v>
       </c>
       <c r="BP25" s="1">
-        <v>1996.360000</v>
+        <v>1996.36</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1800.100000</v>
+        <v>-1800.1</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>77030.707137</v>
+        <v>77030.707137000005</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.397419</v>
+        <v>21.397418999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2384.510000</v>
+        <v>2384.5100000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2665.480000</v>
+        <v>-2665.48</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>77041.551139</v>
+        <v>77041.551139000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.400431</v>
+        <v>21.400431000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2866.230000</v>
+        <v>2866.23</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3610.510000</v>
+        <v>-3610.51</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>77054.637618</v>
+        <v>77054.637617999993</v>
       </c>
       <c r="CD25" s="1">
         <v>21.404066</v>
       </c>
       <c r="CE25" s="1">
-        <v>4261.550000</v>
+        <v>4261.55</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5871.790000</v>
+        <v>-5871.79</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>76881.945365</v>
+        <v>76881.945365000007</v>
       </c>
       <c r="B26" s="1">
-        <v>21.356096</v>
+        <v>21.356096000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.710000</v>
+        <v>1247.71</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.593000</v>
+        <v>-304.59300000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>76892.350072</v>
+        <v>76892.350072000001</v>
       </c>
       <c r="G26" s="1">
-        <v>21.358986</v>
+        <v>21.358986000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.490000</v>
+        <v>1272.49</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.147000</v>
+        <v>-264.14699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>76902.757627</v>
+        <v>76902.757626999999</v>
       </c>
       <c r="L26" s="1">
         <v>21.361877</v>
       </c>
       <c r="M26" s="1">
-        <v>1309.990000</v>
+        <v>1309.99</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.026000</v>
+        <v>-204.02600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>76913.340269</v>
+        <v>76913.340268999993</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.364817</v>
+        <v>21.364816999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.680000</v>
+        <v>1322.68</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.162000</v>
+        <v>-186.16200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>76923.780063</v>
+        <v>76923.780062999998</v>
       </c>
       <c r="V26" s="1">
-        <v>21.367717</v>
+        <v>21.367716999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.915000</v>
+        <v>-172.91499999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>76933.986737</v>
+        <v>76933.986736999999</v>
       </c>
       <c r="AA26" s="1">
         <v>21.370552</v>
       </c>
       <c r="AB26" s="1">
-        <v>1354.740000</v>
+        <v>1354.74</v>
       </c>
       <c r="AC26" s="1">
-        <v>-171.121000</v>
+        <v>-171.12100000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>76944.429539</v>
+        <v>76944.429539000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.373453</v>
+        <v>21.373453000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.565000</v>
+        <v>-180.565</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>76954.711607</v>
+        <v>76954.711607000005</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.376309</v>
+        <v>21.376308999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1389.760000</v>
+        <v>1389.76</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.180000</v>
+        <v>-210.18</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>76965.804104</v>
+        <v>76965.804103999995</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.379390</v>
+        <v>21.379390000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1412.290000</v>
+        <v>1412.29</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.465000</v>
+        <v>-253.465</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>76976.580185</v>
+        <v>76976.580184999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.382383</v>
+        <v>21.382383000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1437.640000</v>
+        <v>1437.64</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.638000</v>
+        <v>-312.63799999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>76987.507083</v>
+        <v>76987.507083000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.385419</v>
+        <v>21.385418999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1457.500000</v>
+        <v>1457.5</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.990000</v>
+        <v>-363.99</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>76998.125404</v>
+        <v>76998.125404000006</v>
       </c>
       <c r="BE26" s="1">
         <v>21.388368</v>
       </c>
       <c r="BF26" s="1">
-        <v>1544.400000</v>
+        <v>1544.4</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.391000</v>
+        <v>-608.39099999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>77009.223390</v>
+        <v>77009.223389999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>21.391451</v>
       </c>
       <c r="BK26" s="1">
-        <v>1700.400000</v>
+        <v>1700.4</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1045.470000</v>
+        <v>-1045.47</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>77019.938960</v>
+        <v>77019.938959999999</v>
       </c>
       <c r="BO26" s="1">
         <v>21.394427</v>
       </c>
       <c r="BP26" s="1">
-        <v>1996.280000</v>
+        <v>1996.28</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1800.210000</v>
+        <v>-1800.21</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>77031.137634</v>
+        <v>77031.137633999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.397538</v>
+        <v>21.397538000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2384.480000</v>
+        <v>2384.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2665.490000</v>
+        <v>-2665.49</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>77041.998035</v>
+        <v>77041.998034999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.400555</v>
+        <v>21.400555000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.710000</v>
+        <v>2865.71</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3610.980000</v>
+        <v>-3610.98</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>77055.154914</v>
+        <v>77055.154913999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.404210</v>
+        <v>21.404209999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4261.240000</v>
+        <v>4261.24</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5868.680000</v>
+        <v>-5868.68</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>